--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H2">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I2">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J2">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03650533333333333</v>
+        <v>0.208393</v>
       </c>
       <c r="N2">
-        <v>0.109516</v>
+        <v>0.6251789999999999</v>
       </c>
       <c r="O2">
-        <v>0.05048553535660861</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="P2">
-        <v>0.0504855353566086</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="Q2">
-        <v>0.0007963273413333333</v>
+        <v>0.237883527002</v>
       </c>
       <c r="R2">
-        <v>0.007166946072</v>
+        <v>2.140951743018</v>
       </c>
       <c r="S2">
-        <v>1.951137332075074E-05</v>
+        <v>0.04860320667921228</v>
       </c>
       <c r="T2">
-        <v>1.951137332075074E-05</v>
+        <v>0.04860320667921227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H3">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I3">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J3">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.303754</v>
       </c>
       <c r="O3">
-        <v>0.1400268755863188</v>
+        <v>0.1835041182916913</v>
       </c>
       <c r="P3">
-        <v>0.1400268755863188</v>
+        <v>0.1835041182916913</v>
       </c>
       <c r="Q3">
-        <v>0.002208696585333333</v>
+        <v>0.1155798145186667</v>
       </c>
       <c r="R3">
-        <v>0.019878269268</v>
+        <v>1.040218330668</v>
       </c>
       <c r="S3">
-        <v>5.411682029722891E-05</v>
+        <v>0.02361470625474856</v>
       </c>
       <c r="T3">
-        <v>5.411682029722889E-05</v>
+        <v>0.02361470625474855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,57 +661,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H4">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I4">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J4">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5853283333333333</v>
+        <v>0.1615996666666667</v>
       </c>
       <c r="N4">
-        <v>1.755985</v>
+        <v>0.484799</v>
       </c>
       <c r="O4">
-        <v>0.8094875890570726</v>
+        <v>0.2928771737777729</v>
       </c>
       <c r="P4">
-        <v>0.8094875890570726</v>
+        <v>0.2928771737777729</v>
       </c>
       <c r="Q4">
-        <v>0.01276835226333333</v>
+        <v>0.1844682818953333</v>
       </c>
       <c r="R4">
-        <v>0.11491517037</v>
+        <v>1.660214537058</v>
       </c>
       <c r="S4">
-        <v>0.000312846331866015</v>
+        <v>0.03768966327223953</v>
       </c>
       <c r="T4">
-        <v>0.0003128463318660149</v>
+        <v>0.03768966327223952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.348859666666667</v>
+        <v>1.141514</v>
       </c>
       <c r="H5">
-        <v>4.046578999999999</v>
+        <v>3.424542</v>
       </c>
       <c r="I5">
-        <v>0.02389749241860727</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J5">
-        <v>0.02389749241860727</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03650533333333333</v>
+        <v>0.080522</v>
       </c>
       <c r="N5">
-        <v>0.109516</v>
+        <v>0.241566</v>
       </c>
       <c r="O5">
-        <v>0.05048553535660861</v>
+        <v>0.145935052177916</v>
       </c>
       <c r="P5">
-        <v>0.0504855353566086</v>
+        <v>0.145935052177916</v>
       </c>
       <c r="Q5">
-        <v>0.04924057175155555</v>
+        <v>0.091916990308</v>
       </c>
       <c r="R5">
-        <v>0.443165145764</v>
+        <v>0.8272529127720001</v>
       </c>
       <c r="S5">
-        <v>0.001206477698433884</v>
+        <v>0.01878003295803377</v>
       </c>
       <c r="T5">
-        <v>0.001206477698433883</v>
+        <v>0.01878003295803377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1012513333333333</v>
+        <v>0.208393</v>
       </c>
       <c r="N6">
-        <v>0.303754</v>
+        <v>0.6251789999999999</v>
       </c>
       <c r="O6">
-        <v>0.1400268755863188</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="P6">
-        <v>0.1400268755863188</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="Q6">
-        <v>0.1365738397295556</v>
+        <v>0.2810929125156666</v>
       </c>
       <c r="R6">
-        <v>1.229164557566</v>
+        <v>2.529836212640999</v>
       </c>
       <c r="S6">
-        <v>0.003346291197725318</v>
+        <v>0.05743153843076244</v>
       </c>
       <c r="T6">
-        <v>0.003346291197725317</v>
+        <v>0.05743153843076244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5853283333333333</v>
+        <v>0.1012513333333333</v>
       </c>
       <c r="N7">
-        <v>1.755985</v>
+        <v>0.303754</v>
       </c>
       <c r="O7">
-        <v>0.8094875890570726</v>
+        <v>0.1835041182916913</v>
       </c>
       <c r="P7">
-        <v>0.8094875890570726</v>
+        <v>0.1835041182916913</v>
       </c>
       <c r="Q7">
-        <v>0.7895257805905556</v>
+        <v>0.1365738397295556</v>
       </c>
       <c r="R7">
-        <v>7.105732025315</v>
+        <v>1.229164557566</v>
       </c>
       <c r="S7">
-        <v>0.01934472352244807</v>
+        <v>0.02790410350395298</v>
       </c>
       <c r="T7">
-        <v>0.01934472352244807</v>
+        <v>0.02790410350395298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.462627</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H8">
-        <v>55.38788100000001</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I8">
-        <v>0.3270988818654528</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J8">
-        <v>0.3270988818654528</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03650533333333333</v>
+        <v>0.1615996666666667</v>
       </c>
       <c r="N8">
-        <v>0.109516</v>
+        <v>0.484799</v>
       </c>
       <c r="O8">
-        <v>0.05048553535660861</v>
+        <v>0.2928771737777729</v>
       </c>
       <c r="P8">
-        <v>0.0504855353566086</v>
+        <v>0.2928771737777729</v>
       </c>
       <c r="Q8">
-        <v>0.673984352844</v>
+        <v>0.2179752725134444</v>
       </c>
       <c r="R8">
-        <v>6.065859175596001</v>
+        <v>1.961777452621</v>
       </c>
       <c r="S8">
-        <v>0.01651376216552546</v>
+        <v>0.0445356488296875</v>
       </c>
       <c r="T8">
-        <v>0.01651376216552546</v>
+        <v>0.0445356488296875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.462627</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H9">
-        <v>55.38788100000001</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I9">
-        <v>0.3270988818654528</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J9">
-        <v>0.3270988818654528</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1012513333333333</v>
+        <v>0.080522</v>
       </c>
       <c r="N9">
-        <v>0.303754</v>
+        <v>0.241566</v>
       </c>
       <c r="O9">
-        <v>0.1400268755863188</v>
+        <v>0.145935052177916</v>
       </c>
       <c r="P9">
-        <v>0.1400268755863188</v>
+        <v>0.145935052177916</v>
       </c>
       <c r="Q9">
-        <v>1.869365600586</v>
+        <v>0.1086128780793333</v>
       </c>
       <c r="R9">
-        <v>16.824290405274</v>
+        <v>0.9775159027139999</v>
       </c>
       <c r="S9">
-        <v>0.04580263443539775</v>
+        <v>0.02219125564448832</v>
       </c>
       <c r="T9">
-        <v>0.04580263443539775</v>
+        <v>0.02219125564448832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H10">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.5853283333333333</v>
+        <v>0.208393</v>
       </c>
       <c r="N10">
-        <v>1.755985</v>
+        <v>0.6251789999999999</v>
       </c>
       <c r="O10">
-        <v>0.8094875890570726</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="P10">
-        <v>0.8094875890570726</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="Q10">
-        <v>10.806698690865</v>
+        <v>0.5077084216146666</v>
       </c>
       <c r="R10">
-        <v>97.26028821778502</v>
+        <v>4.569375794532</v>
       </c>
       <c r="S10">
-        <v>0.2647824852645296</v>
+        <v>0.1037325184282593</v>
       </c>
       <c r="T10">
-        <v>0.2647824852645296</v>
+        <v>0.1037325184282593</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4952266666666667</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H11">
-        <v>1.48568</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I11">
-        <v>0.00877383749000735</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J11">
-        <v>0.00877383749000735</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,95 +1119,95 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03650533333333333</v>
+        <v>0.1012513333333333</v>
       </c>
       <c r="N11">
-        <v>0.109516</v>
+        <v>0.303754</v>
       </c>
       <c r="O11">
-        <v>0.05048553535660861</v>
+        <v>0.1835041182916913</v>
       </c>
       <c r="P11">
-        <v>0.0504855353566086</v>
+        <v>0.1835041182916913</v>
       </c>
       <c r="Q11">
-        <v>0.01807841454222222</v>
+        <v>0.2466788934035556</v>
       </c>
       <c r="R11">
-        <v>0.16270573088</v>
+        <v>2.220110040632</v>
       </c>
       <c r="S11">
-        <v>0.0004429518828149042</v>
+        <v>0.0504002332174585</v>
       </c>
       <c r="T11">
-        <v>0.0004429518828149042</v>
+        <v>0.0504002332174585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.436302666666667</v>
+      </c>
+      <c r="H12">
+        <v>7.308908000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.2746545074118945</v>
+      </c>
+      <c r="J12">
+        <v>0.2746545074118945</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.4952266666666667</v>
-      </c>
-      <c r="H12">
-        <v>1.48568</v>
-      </c>
-      <c r="I12">
-        <v>0.00877383749000735</v>
-      </c>
-      <c r="J12">
-        <v>0.00877383749000735</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M12">
-        <v>0.1012513333333333</v>
+        <v>0.1615996666666667</v>
       </c>
       <c r="N12">
-        <v>0.303754</v>
+        <v>0.484799</v>
       </c>
       <c r="O12">
-        <v>0.1400268755863188</v>
+        <v>0.2928771737777729</v>
       </c>
       <c r="P12">
-        <v>0.1400268755863188</v>
+        <v>0.2928771737777729</v>
       </c>
       <c r="Q12">
-        <v>0.05014236030222223</v>
+        <v>0.3937056988324444</v>
       </c>
       <c r="R12">
-        <v>0.4512812427200001</v>
+        <v>3.543351289492</v>
       </c>
       <c r="S12">
-        <v>0.001228573050627839</v>
+        <v>0.08044003589612206</v>
       </c>
       <c r="T12">
-        <v>0.001228573050627839</v>
+        <v>0.08044003589612206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4952266666666667</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H13">
-        <v>1.48568</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I13">
-        <v>0.00877383749000735</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J13">
-        <v>0.00877383749000735</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.5853283333333333</v>
+        <v>0.080522</v>
       </c>
       <c r="N13">
-        <v>1.755985</v>
+        <v>0.241566</v>
       </c>
       <c r="O13">
-        <v>0.8094875890570726</v>
+        <v>0.145935052177916</v>
       </c>
       <c r="P13">
-        <v>0.8094875890570726</v>
+        <v>0.145935052177916</v>
       </c>
       <c r="Q13">
-        <v>0.2898701994222223</v>
+        <v>0.1961759633253333</v>
       </c>
       <c r="R13">
-        <v>2.6088317948</v>
+        <v>1.765583669928</v>
       </c>
       <c r="S13">
-        <v>0.007102312556564607</v>
+        <v>0.04008171987005464</v>
       </c>
       <c r="T13">
-        <v>0.007102312556564607</v>
+        <v>0.04008171987005464</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.4110173333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.233052</v>
+      </c>
+      <c r="I14">
+        <v>0.04633568922652349</v>
+      </c>
+      <c r="J14">
+        <v>0.04633568922652349</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.178527</v>
-      </c>
-      <c r="H14">
-        <v>0.535581</v>
-      </c>
-      <c r="I14">
-        <v>0.003162929201938255</v>
-      </c>
-      <c r="J14">
-        <v>0.003162929201938254</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M14">
-        <v>0.03650533333333333</v>
+        <v>0.208393</v>
       </c>
       <c r="N14">
-        <v>0.109516</v>
+        <v>0.6251789999999999</v>
       </c>
       <c r="O14">
-        <v>0.05048553535660861</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="P14">
-        <v>0.0504855353566086</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="Q14">
-        <v>0.006517187644</v>
+        <v>0.08565313514533332</v>
       </c>
       <c r="R14">
-        <v>0.058654688796</v>
+        <v>0.7708782163079999</v>
       </c>
       <c r="S14">
-        <v>0.0001596821740549036</v>
+        <v>0.01750023249889067</v>
       </c>
       <c r="T14">
-        <v>0.0001596821740549036</v>
+        <v>0.01750023249889067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.178527</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H15">
-        <v>0.535581</v>
+        <v>1.233052</v>
       </c>
       <c r="I15">
-        <v>0.003162929201938255</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J15">
-        <v>0.003162929201938254</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,27 +1373,27 @@
         <v>0.303754</v>
       </c>
       <c r="O15">
-        <v>0.1400268755863188</v>
+        <v>0.1835041182916913</v>
       </c>
       <c r="P15">
-        <v>0.1400268755863188</v>
+        <v>0.1835041182916913</v>
       </c>
       <c r="Q15">
-        <v>0.018076096786</v>
+        <v>0.04161605302311112</v>
       </c>
       <c r="R15">
-        <v>0.162684871074</v>
+        <v>0.374544477208</v>
       </c>
       <c r="S15">
-        <v>0.0004428950938481427</v>
+        <v>0.008502789796951012</v>
       </c>
       <c r="T15">
-        <v>0.0004428950938481425</v>
+        <v>0.008502789796951012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,84 +1405,84 @@
         <v>23</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.4110173333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.233052</v>
+      </c>
+      <c r="I16">
+        <v>0.04633568922652349</v>
+      </c>
+      <c r="J16">
+        <v>0.04633568922652349</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.178527</v>
-      </c>
-      <c r="H16">
-        <v>0.535581</v>
-      </c>
-      <c r="I16">
-        <v>0.003162929201938255</v>
-      </c>
-      <c r="J16">
-        <v>0.003162929201938254</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.5853283333333333</v>
+        <v>0.1615996666666667</v>
       </c>
       <c r="N16">
-        <v>1.755985</v>
+        <v>0.484799</v>
       </c>
       <c r="O16">
-        <v>0.8094875890570726</v>
+        <v>0.2928771737777729</v>
       </c>
       <c r="P16">
-        <v>0.8094875890570726</v>
+        <v>0.2928771737777729</v>
       </c>
       <c r="Q16">
-        <v>0.104496911365</v>
+        <v>0.0664202640608889</v>
       </c>
       <c r="R16">
-        <v>0.9404722022850001</v>
+        <v>0.597782376548</v>
       </c>
       <c r="S16">
-        <v>0.002560351934035209</v>
+        <v>0.0135706657057094</v>
       </c>
       <c r="T16">
-        <v>0.002560351934035208</v>
+        <v>0.0135706657057094</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>35.93651066666666</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H17">
-        <v>107.809532</v>
+        <v>1.233052</v>
       </c>
       <c r="I17">
-        <v>0.6366803844985105</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J17">
-        <v>0.6366803844985104</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03650533333333333</v>
+        <v>0.080522</v>
       </c>
       <c r="N17">
-        <v>0.109516</v>
+        <v>0.241566</v>
       </c>
       <c r="O17">
-        <v>0.05048553535660861</v>
+        <v>0.145935052177916</v>
       </c>
       <c r="P17">
-        <v>0.0504855353566086</v>
+        <v>0.145935052177916</v>
       </c>
       <c r="Q17">
-        <v>1.311874300723555</v>
+        <v>0.03309593771466667</v>
       </c>
       <c r="R17">
-        <v>11.806868706512</v>
+        <v>0.297863439432</v>
       </c>
       <c r="S17">
-        <v>0.03214315006245871</v>
+        <v>0.006762001224972405</v>
       </c>
       <c r="T17">
-        <v>0.03214315006245871</v>
+        <v>0.006762001224972405</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.93651066666666</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H18">
-        <v>107.809532</v>
+        <v>6.619789</v>
       </c>
       <c r="I18">
-        <v>0.6366803844985105</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J18">
-        <v>0.6366803844985104</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1012513333333333</v>
+        <v>0.208393</v>
       </c>
       <c r="N18">
-        <v>0.303754</v>
+        <v>0.6251789999999999</v>
       </c>
       <c r="O18">
-        <v>0.1400268755863188</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="P18">
-        <v>0.1400268755863188</v>
+        <v>0.3776836557526198</v>
       </c>
       <c r="Q18">
-        <v>3.638619620347556</v>
+        <v>0.4598392296923332</v>
       </c>
       <c r="R18">
-        <v>32.747576583128</v>
+        <v>4.138553067230999</v>
       </c>
       <c r="S18">
-        <v>0.08915236498842256</v>
+        <v>0.09395211766705618</v>
       </c>
       <c r="T18">
-        <v>0.08915236498842252</v>
+        <v>0.09395211766705619</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,418 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.93651066666666</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H19">
-        <v>107.809532</v>
+        <v>6.619789</v>
       </c>
       <c r="I19">
-        <v>0.6366803844985105</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J19">
-        <v>0.6366803844985104</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1012513333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.303754</v>
+      </c>
+      <c r="O19">
+        <v>0.1835041182916913</v>
+      </c>
+      <c r="P19">
+        <v>0.1835041182916913</v>
+      </c>
+      <c r="Q19">
+        <v>0.2234208208784444</v>
+      </c>
+      <c r="R19">
+        <v>2.010787387906</v>
+      </c>
+      <c r="S19">
+        <v>0.04564825681898942</v>
+      </c>
+      <c r="T19">
+        <v>0.04564825681898942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.5853283333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.755985</v>
-      </c>
-      <c r="O19">
-        <v>0.8094875890570726</v>
-      </c>
-      <c r="P19">
-        <v>0.8094875890570726</v>
-      </c>
-      <c r="Q19">
-        <v>21.03465789433555</v>
-      </c>
-      <c r="R19">
-        <v>189.31192104902</v>
-      </c>
-      <c r="S19">
-        <v>0.5153848694476293</v>
-      </c>
-      <c r="T19">
-        <v>0.5153848694476292</v>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.206596333333333</v>
+      </c>
+      <c r="H20">
+        <v>6.619789</v>
+      </c>
+      <c r="I20">
+        <v>0.2487587594433638</v>
+      </c>
+      <c r="J20">
+        <v>0.2487587594433639</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1615996666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.484799</v>
+      </c>
+      <c r="O20">
+        <v>0.2928771737777729</v>
+      </c>
+      <c r="P20">
+        <v>0.2928771737777729</v>
+      </c>
+      <c r="Q20">
+        <v>0.3565852319345555</v>
+      </c>
+      <c r="R20">
+        <v>3.209267087411</v>
+      </c>
+      <c r="S20">
+        <v>0.07285576241823728</v>
+      </c>
+      <c r="T20">
+        <v>0.0728557624182373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.206596333333333</v>
+      </c>
+      <c r="H21">
+        <v>6.619789</v>
+      </c>
+      <c r="I21">
+        <v>0.2487587594433638</v>
+      </c>
+      <c r="J21">
+        <v>0.2487587594433639</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.080522</v>
+      </c>
+      <c r="N21">
+        <v>0.241566</v>
+      </c>
+      <c r="O21">
+        <v>0.145935052177916</v>
+      </c>
+      <c r="P21">
+        <v>0.145935052177916</v>
+      </c>
+      <c r="Q21">
+        <v>0.1776795499526666</v>
+      </c>
+      <c r="R21">
+        <v>1.599115949574</v>
+      </c>
+      <c r="S21">
+        <v>0.03630262253908095</v>
+      </c>
+      <c r="T21">
+        <v>0.03630262253908096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.326136666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.97841</v>
+      </c>
+      <c r="I22">
+        <v>0.1495008883450928</v>
+      </c>
+      <c r="J22">
+        <v>0.1495008883450928</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.208393</v>
+      </c>
+      <c r="N22">
+        <v>0.6251789999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.3776836557526198</v>
+      </c>
+      <c r="P22">
+        <v>0.3776836557526198</v>
+      </c>
+      <c r="Q22">
+        <v>0.2763575983766666</v>
+      </c>
+      <c r="R22">
+        <v>2.48721838539</v>
+      </c>
+      <c r="S22">
+        <v>0.05646404204843886</v>
+      </c>
+      <c r="T22">
+        <v>0.05646404204843886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.326136666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.97841</v>
+      </c>
+      <c r="I23">
+        <v>0.1495008883450928</v>
+      </c>
+      <c r="J23">
+        <v>0.1495008883450928</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1012513333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.303754</v>
+      </c>
+      <c r="O23">
+        <v>0.1835041182916913</v>
+      </c>
+      <c r="P23">
+        <v>0.1835041182916913</v>
+      </c>
+      <c r="Q23">
+        <v>0.1342731056822223</v>
+      </c>
+      <c r="R23">
+        <v>1.20845795114</v>
+      </c>
+      <c r="S23">
+        <v>0.02743402869959084</v>
+      </c>
+      <c r="T23">
+        <v>0.02743402869959084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.326136666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.97841</v>
+      </c>
+      <c r="I24">
+        <v>0.1495008883450928</v>
+      </c>
+      <c r="J24">
+        <v>0.1495008883450928</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1615996666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.484799</v>
+      </c>
+      <c r="O24">
+        <v>0.2928771737777729</v>
+      </c>
+      <c r="P24">
+        <v>0.2928771737777729</v>
+      </c>
+      <c r="Q24">
+        <v>0.2143032432877778</v>
+      </c>
+      <c r="R24">
+        <v>1.92872918959</v>
+      </c>
+      <c r="S24">
+        <v>0.04378539765577717</v>
+      </c>
+      <c r="T24">
+        <v>0.04378539765577717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.326136666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.97841</v>
+      </c>
+      <c r="I25">
+        <v>0.1495008883450928</v>
+      </c>
+      <c r="J25">
+        <v>0.1495008883450928</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.080522</v>
+      </c>
+      <c r="N25">
+        <v>0.241566</v>
+      </c>
+      <c r="O25">
+        <v>0.145935052177916</v>
+      </c>
+      <c r="P25">
+        <v>0.145935052177916</v>
+      </c>
+      <c r="Q25">
+        <v>0.1067831766733333</v>
+      </c>
+      <c r="R25">
+        <v>0.9610485900600001</v>
+      </c>
+      <c r="S25">
+        <v>0.0218174199412859</v>
+      </c>
+      <c r="T25">
+        <v>0.0218174199412859</v>
       </c>
     </row>
   </sheetData>
